--- a/ПЗ 3 кв 2020.xlsx
+++ b/ПЗ 3 кв 2020.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr codeName="ЭтаКнига1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gasan/PycharmProjects/excelTojson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{167E033B-1F06-AD40-9E4F-E371B963E4A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD0FD4D-2610-444A-BE2C-BAC23E655B81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Закупки" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="281">
   <si>
     <t>Номер закупки</t>
   </si>
@@ -873,12 +873,15 @@
   </si>
   <si>
     <t>КэфМСП</t>
+  </si>
+  <si>
+    <t>6764</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1617,17 +1620,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BI67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="R37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="R28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S48" sqref="S48"/>
+      <selection pane="bottomRight" activeCell="S47" sqref="S47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1833,8 +1836,8 @@
       </c>
     </row>
     <row r="2" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27">
-        <v>6764</v>
+      <c r="A2" s="27" t="s">
+        <v>280</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>71</v>
@@ -8745,8 +8748,8 @@
       <c r="R47" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="S47" s="6">
-        <v>123</v>
+      <c r="S47" s="6" t="s">
+        <v>254</v>
       </c>
       <c r="T47" s="6" t="s">
         <v>64</v>
@@ -10544,7 +10547,7 @@
       <c r="BI67" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BE64">
+  <autoFilter ref="A1:BE64" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BF138">
       <sortCondition ref="BE1:BE138"/>
     </sortState>
